--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="udWosoNziCL7aAnIsLNuUR/tmpEjsBuZ5SjnhZi0Oa8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="siNc+SXGZiGbK5l0Gd4YDFLzzHD082683C/OZTa7HkI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
   <si>
     <t>Localidade</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>OUT/23</t>
+  </si>
+  <si>
+    <t>NOV/23</t>
   </si>
   <si>
     <t>Curral do Fogo Novo SI</t>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -214,6 +217,15 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +553,8 @@
         <v>30.0</v>
       </c>
       <c r="F3" s="5">
-        <v>309.0</v>
+        <f t="shared" ref="F3:F13" si="1">H3-H2+G3</f>
+        <v>309</v>
       </c>
       <c r="G3" s="5">
         <v>309.0</v>
@@ -573,7 +586,8 @@
         <v>30.0</v>
       </c>
       <c r="F4" s="5">
-        <v>456.0</v>
+        <f t="shared" si="1"/>
+        <v>456</v>
       </c>
       <c r="G4" s="5">
         <v>456.0</v>
@@ -605,6 +619,7 @@
         <v>32.0</v>
       </c>
       <c r="F5" s="5">
+        <f t="shared" si="1"/>
         <v>981.4</v>
       </c>
       <c r="G5" s="5">
@@ -637,6 +652,7 @@
         <v>29.0</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="1"/>
         <v>1092.7</v>
       </c>
       <c r="G6" s="5">
@@ -669,6 +685,7 @@
         <v>33.0</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="1"/>
         <v>1007.3</v>
       </c>
       <c r="G7" s="5">
@@ -701,6 +718,7 @@
         <v>30.0</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="1"/>
         <v>1104.6</v>
       </c>
       <c r="G8" s="5">
@@ -733,6 +751,7 @@
         <v>29.0</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="1"/>
         <v>1049.3</v>
       </c>
       <c r="G9" s="5">
@@ -765,6 +784,7 @@
         <v>33.0</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="1"/>
         <v>1157.1</v>
       </c>
       <c r="G10" s="5">
@@ -797,6 +817,7 @@
         <v>29.0</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="1"/>
         <v>1026.2</v>
       </c>
       <c r="G11" s="5">
@@ -829,6 +850,7 @@
         <v>33.0</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="1"/>
         <v>1276.8</v>
       </c>
       <c r="G12" s="5">
@@ -844,7 +866,39 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>807.0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1215.9</v>
+      </c>
+      <c r="G13" s="7">
+        <v>757.0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3962.3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -1824,6 +1878,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1889,7 +1944,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1921,7 +1976,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -1936,7 +1991,8 @@
         <v>30.0</v>
       </c>
       <c r="F3" s="5">
-        <v>97.24000000000024</v>
+        <f t="shared" ref="F3:F13" si="1">H3-H2+G3</f>
+        <v>97.24</v>
       </c>
       <c r="G3" s="5">
         <v>310.0</v>
@@ -1953,7 +2009,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -1968,7 +2024,8 @@
         <v>30.0</v>
       </c>
       <c r="F4" s="5">
-        <v>143.4400000000001</v>
+        <f t="shared" si="1"/>
+        <v>143.44</v>
       </c>
       <c r="G4" s="5">
         <v>430.0</v>
@@ -1985,7 +2042,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2000,7 +2057,8 @@
         <v>32.0</v>
       </c>
       <c r="F5" s="5">
-        <v>308.4399999999996</v>
+        <f t="shared" si="1"/>
+        <v>308.44</v>
       </c>
       <c r="G5" s="5">
         <v>230.0</v>
@@ -2017,7 +2075,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -2032,7 +2090,8 @@
         <v>29.0</v>
       </c>
       <c r="F6" s="5">
-        <v>343.4200000000001</v>
+        <f t="shared" si="1"/>
+        <v>343.42</v>
       </c>
       <c r="G6" s="5">
         <v>270.0</v>
@@ -2049,7 +2108,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -2064,7 +2123,8 @@
         <v>33.0</v>
       </c>
       <c r="F7" s="5">
-        <v>316.5799999999999</v>
+        <f t="shared" si="1"/>
+        <v>316.58</v>
       </c>
       <c r="G7" s="5">
         <v>470.0</v>
@@ -2081,7 +2141,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -2096,7 +2156,8 @@
         <v>30.0</v>
       </c>
       <c r="F8" s="5">
-        <v>347.1600000000003</v>
+        <f t="shared" si="1"/>
+        <v>347.16</v>
       </c>
       <c r="G8" s="5">
         <v>470.0</v>
@@ -2113,7 +2174,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -2128,7 +2189,8 @@
         <v>29.0</v>
       </c>
       <c r="F9" s="5">
-        <v>329.7799999999997</v>
+        <f t="shared" si="1"/>
+        <v>329.78</v>
       </c>
       <c r="G9" s="5">
         <v>2430.0</v>
@@ -2145,7 +2207,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -2160,7 +2222,8 @@
         <v>33.0</v>
       </c>
       <c r="F10" s="5">
-        <v>363.8199999999999</v>
+        <f t="shared" si="1"/>
+        <v>363.82</v>
       </c>
       <c r="G10" s="5">
         <v>1552.0</v>
@@ -2177,7 +2240,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -2192,7 +2255,8 @@
         <v>29.0</v>
       </c>
       <c r="F11" s="5">
-        <v>323.0</v>
+        <f t="shared" si="1"/>
+        <v>323</v>
       </c>
       <c r="G11" s="5">
         <v>323.0</v>
@@ -2209,7 +2273,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -2224,7 +2288,8 @@
         <v>33.0</v>
       </c>
       <c r="F12" s="5">
-        <v>401.0</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="G12" s="5">
         <v>401.0</v>
@@ -2239,7 +2304,39 @@
         <v>303.57</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>720.0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="G13" s="7">
+        <v>382.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>338.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>321.86</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -3219,6 +3316,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -3268,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -3288,7 +3386,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -3323,7 +3421,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -3341,7 +3439,8 @@
         <v>1159.0</v>
       </c>
       <c r="G3" s="5">
-        <v>717.0</v>
+        <f t="shared" ref="G3:G13" si="1">I3-I2+H3</f>
+        <v>717</v>
       </c>
       <c r="H3" s="5">
         <v>717.0</v>
@@ -3358,7 +3457,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -3376,7 +3475,8 @@
         <v>1543.0</v>
       </c>
       <c r="G4" s="5">
-        <v>891.0</v>
+        <f t="shared" si="1"/>
+        <v>891</v>
       </c>
       <c r="H4" s="5">
         <v>891.0</v>
@@ -3393,7 +3493,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -3411,7 +3511,8 @@
         <v>1681.0</v>
       </c>
       <c r="G5" s="5">
-        <v>179.0</v>
+        <f t="shared" si="1"/>
+        <v>179</v>
       </c>
       <c r="H5" s="5">
         <v>179.0</v>
@@ -3428,7 +3529,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -3446,7 +3547,8 @@
         <v>1904.0</v>
       </c>
       <c r="G6" s="5">
-        <v>343.0</v>
+        <f t="shared" si="1"/>
+        <v>343</v>
       </c>
       <c r="H6" s="5">
         <v>343.0</v>
@@ -3463,7 +3565,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -3481,7 +3583,8 @@
         <v>1753.0</v>
       </c>
       <c r="G7" s="5">
-        <v>314.0</v>
+        <f t="shared" si="1"/>
+        <v>314</v>
       </c>
       <c r="H7" s="5">
         <v>314.0</v>
@@ -3498,7 +3601,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -3516,7 +3619,8 @@
         <v>1928.0</v>
       </c>
       <c r="G8" s="5">
-        <v>350.0</v>
+        <f t="shared" si="1"/>
+        <v>350</v>
       </c>
       <c r="H8" s="5">
         <v>350.0</v>
@@ -3533,7 +3637,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -3551,7 +3655,8 @@
         <v>1761.0</v>
       </c>
       <c r="G9" s="5">
-        <v>262.0</v>
+        <f t="shared" si="1"/>
+        <v>262</v>
       </c>
       <c r="H9" s="5">
         <v>262.0</v>
@@ -3568,7 +3673,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -3586,7 +3691,8 @@
         <v>1979.0</v>
       </c>
       <c r="G10" s="5">
-        <v>326.0</v>
+        <f t="shared" si="1"/>
+        <v>326</v>
       </c>
       <c r="H10" s="5">
         <v>326.0</v>
@@ -3603,7 +3709,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -3621,7 +3727,8 @@
         <v>1742.0</v>
       </c>
       <c r="G11" s="5">
-        <v>276.0</v>
+        <f t="shared" si="1"/>
+        <v>276</v>
       </c>
       <c r="H11" s="5">
         <v>276.0</v>
@@ -3638,7 +3745,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -3656,7 +3763,8 @@
         <v>2078.0</v>
       </c>
       <c r="G12" s="5">
-        <v>254.0</v>
+        <f t="shared" si="1"/>
+        <v>254</v>
       </c>
       <c r="H12" s="5">
         <v>254.0</v>
@@ -3671,7 +3779,42 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>282.0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9.4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1969.0</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="H13" s="7">
+        <v>232.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -4651,6 +4794,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -4716,7 +4860,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -4748,7 +4892,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -4763,7 +4907,8 @@
         <v>31.0</v>
       </c>
       <c r="F3" s="5">
-        <v>4.419999999999987</v>
+        <f t="shared" ref="F3:F13" si="1">H3-H2+G3</f>
+        <v>4.42</v>
       </c>
       <c r="G3" s="5">
         <v>0.0</v>
@@ -4780,7 +4925,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -4795,7 +4940,8 @@
         <v>31.0</v>
       </c>
       <c r="F4" s="5">
-        <v>6.52000000000001</v>
+        <f t="shared" si="1"/>
+        <v>6.52</v>
       </c>
       <c r="G4" s="5">
         <v>0.0</v>
@@ -4812,7 +4958,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -4827,7 +4973,8 @@
         <v>31.0</v>
       </c>
       <c r="F5" s="5">
-        <v>14.01999999999998</v>
+        <f t="shared" si="1"/>
+        <v>14.02</v>
       </c>
       <c r="G5" s="5">
         <v>0.0</v>
@@ -4844,7 +4991,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -4859,7 +5006,8 @@
         <v>31.0</v>
       </c>
       <c r="F6" s="5">
-        <v>15.61000000000001</v>
+        <f t="shared" si="1"/>
+        <v>15.61</v>
       </c>
       <c r="G6" s="5">
         <v>0.0</v>
@@ -4876,7 +5024,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -4891,7 +5039,8 @@
         <v>33.0</v>
       </c>
       <c r="F7" s="5">
-        <v>14.38999999999999</v>
+        <f t="shared" si="1"/>
+        <v>14.39</v>
       </c>
       <c r="G7" s="5">
         <v>0.0</v>
@@ -4908,7 +5057,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -4923,7 +5072,8 @@
         <v>29.0</v>
       </c>
       <c r="F8" s="5">
-        <v>15.78000000000003</v>
+        <f t="shared" si="1"/>
+        <v>15.78</v>
       </c>
       <c r="G8" s="5">
         <v>0.0</v>
@@ -4940,7 +5090,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -4955,7 +5105,8 @@
         <v>33.0</v>
       </c>
       <c r="F9" s="5">
-        <v>14.99000000000001</v>
+        <f t="shared" si="1"/>
+        <v>14.99</v>
       </c>
       <c r="G9" s="5">
         <v>0.0</v>
@@ -4972,7 +5123,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -4987,7 +5138,8 @@
         <v>28.0</v>
       </c>
       <c r="F10" s="5">
-        <v>16.52999999999997</v>
+        <f t="shared" si="1"/>
+        <v>16.53</v>
       </c>
       <c r="G10" s="5">
         <v>0.0</v>
@@ -5004,7 +5156,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -5019,7 +5171,8 @@
         <v>30.0</v>
       </c>
       <c r="F11" s="5">
-        <v>14.66000000000003</v>
+        <f t="shared" si="1"/>
+        <v>14.66</v>
       </c>
       <c r="G11" s="5">
         <v>0.0</v>
@@ -5036,7 +5189,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -5047,11 +5200,12 @@
       <c r="D12" s="5">
         <v>0.0</v>
       </c>
-      <c r="E12" s="5">
-        <v>32.0</v>
+      <c r="E12" s="7">
+        <v>33.0</v>
       </c>
       <c r="F12" s="5">
-        <v>18.23999999999995</v>
+        <f t="shared" si="1"/>
+        <v>18.24</v>
       </c>
       <c r="G12" s="5">
         <v>0.0</v>
@@ -5066,7 +5220,39 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>33.0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>17.37</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>352.77</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>23.43</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -6046,6 +6232,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6111,7 +6298,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -6143,7 +6330,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -6158,6 +6345,7 @@
         <v>32.0</v>
       </c>
       <c r="F3" s="5">
+        <f t="shared" ref="F3:F13" si="1">H3-H2+G3</f>
         <v>30.94</v>
       </c>
       <c r="G3" s="5">
@@ -6175,7 +6363,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -6190,7 +6378,8 @@
         <v>28.0</v>
       </c>
       <c r="F4" s="5">
-        <v>45.64000000000004</v>
+        <f t="shared" si="1"/>
+        <v>45.64</v>
       </c>
       <c r="G4" s="5">
         <v>43.0</v>
@@ -6207,7 +6396,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -6222,7 +6411,8 @@
         <v>31.0</v>
       </c>
       <c r="F5" s="5">
-        <v>98.13999999999999</v>
+        <f t="shared" si="1"/>
+        <v>98.14</v>
       </c>
       <c r="G5" s="5">
         <v>64.0</v>
@@ -6239,7 +6429,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -6254,6 +6444,7 @@
         <v>30.0</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="1"/>
         <v>109.27</v>
       </c>
       <c r="G6" s="5">
@@ -6271,7 +6462,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -6286,6 +6477,7 @@
         <v>32.0</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="1"/>
         <v>100.73</v>
       </c>
       <c r="G7" s="5">
@@ -6303,7 +6495,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -6318,6 +6510,7 @@
         <v>33.0</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="1"/>
         <v>110.46</v>
       </c>
       <c r="G8" s="5">
@@ -6335,7 +6528,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -6350,7 +6543,8 @@
         <v>29.0</v>
       </c>
       <c r="F9" s="5">
-        <v>104.9300000000001</v>
+        <f t="shared" si="1"/>
+        <v>104.93</v>
       </c>
       <c r="G9" s="5">
         <v>46.0</v>
@@ -6367,7 +6561,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
@@ -6382,7 +6576,8 @@
         <v>31.0</v>
       </c>
       <c r="F10" s="5">
-        <v>115.7099999999999</v>
+        <f t="shared" si="1"/>
+        <v>115.71</v>
       </c>
       <c r="G10" s="5">
         <v>38.0</v>
@@ -6399,7 +6594,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>20</v>
@@ -6414,6 +6609,7 @@
         <v>31.0</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="1"/>
         <v>102.62</v>
       </c>
       <c r="G11" s="5">
@@ -6431,7 +6627,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -6446,7 +6642,8 @@
         <v>31.0</v>
       </c>
       <c r="F12" s="5">
-        <v>127.6800000000001</v>
+        <f t="shared" si="1"/>
+        <v>127.68</v>
       </c>
       <c r="G12" s="5">
         <v>63.0</v>
@@ -6461,7 +6658,39 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.59</v>
+      </c>
+      <c r="E13" s="7">
+        <v>32.0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>121.59</v>
+      </c>
+      <c r="G13" s="7">
+        <v>65.0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>895.8</v>
+      </c>
+      <c r="I13" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>68.21</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -7441,6 +7670,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="31">
   <si>
     <t xml:space="preserve">Localidade</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">JAN/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEV/24</t>
   </si>
   <si>
     <t xml:space="preserve">Curral do Fogo Novo SI</t>
@@ -255,47 +258,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -550,7 +553,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1060,7 +1063,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>678</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>340.63</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>628</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>3711.49</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2068,7 +2103,7 @@
   <dimension ref="A1:J1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2119,7 +2154,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -2151,7 +2186,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -2184,7 +2219,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -2217,7 +2252,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -2250,7 +2285,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -2283,7 +2318,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -2316,7 +2351,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -2349,7 +2384,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -2382,7 +2417,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -2415,7 +2450,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -2448,7 +2483,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -2481,7 +2516,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -2514,7 +2549,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -2547,7 +2582,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -2578,7 +2613,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>1125.56</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>2978.28</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3584,8 +3651,8 @@
   </sheetPr>
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3620,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -3640,7 +3707,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -3675,7 +3742,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -3711,7 +3778,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -3747,7 +3814,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -3783,7 +3850,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -3819,7 +3886,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -3855,7 +3922,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -3891,7 +3958,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -3927,7 +3994,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -3963,7 +4030,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -3999,7 +4066,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -4035,7 +4102,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -4071,7 +4138,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -4107,7 +4174,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -4141,7 +4208,42 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>237</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>1668</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <f aca="false">I16-I15+H16</f>
+        <v>187</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>187</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K16" s="11" t="n">
+        <v>48.06</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5148,7 +5250,7 @@
   <dimension ref="A1:J1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5199,7 +5301,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -5231,7 +5333,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -5264,7 +5366,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -5297,7 +5399,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -5330,7 +5432,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -5363,7 +5465,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -5396,7 +5498,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -5429,7 +5531,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -5462,7 +5564,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -5495,7 +5597,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -5528,7 +5630,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -5561,7 +5663,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -5594,7 +5696,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -5627,7 +5729,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -5658,7 +5760,39 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>7.41000000000003</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>377.04</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>23.64</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6665,7 +6799,7 @@
   <dimension ref="A1:J1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6716,7 +6850,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -6748,7 +6882,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -6781,7 +6915,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -6814,7 +6948,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -6847,7 +6981,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -6880,7 +7014,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -6913,7 +7047,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -6946,7 +7080,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -6979,7 +7113,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -7012,7 +7146,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -7045,7 +7179,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -7078,7 +7212,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -7111,37 +7245,103 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="C14" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <f aca="false">H14-H13+G14</f>
+        <v>8.55000000000007</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>864.35</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>59.94</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="C15" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <f aca="false">H15-H14+G15</f>
+        <v>8.30999999999995</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>807.66</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>68.34</v>
+      </c>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>113</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>7.41000000000008</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>752.07</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>68.65</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Curral do Fogo Velho CH" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="43">
   <si>
     <t xml:space="preserve">Localidade</t>
   </si>
@@ -57,6 +57,42 @@
   </si>
   <si>
     <t xml:space="preserve">Curral do Fogo Velho CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEZ/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEV/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABR/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUN/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUL/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGO/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOV/22</t>
   </si>
   <si>
     <t xml:space="preserve">DEZ/22</t>
@@ -123,10 +159,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -253,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -302,6 +339,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,6 +356,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -550,10 +612,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -610,31 +672,31 @@
         <v>11</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>636</v>
+        <v>437</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>19.27</v>
+        <v>13.65</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="H2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="10" t="n">
-        <v>155</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>109.18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -642,32 +704,31 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>1487</v>
+        <v>524</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>49.56</v>
+        <v>18.71</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10" t="n">
-        <f aca="false">H3-H2+G3</f>
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="10" t="n">
-        <v>1178</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>835.37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -675,32 +736,31 @@
         <v>13</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>948</v>
+        <v>509</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>31.6</v>
+        <v>17.55</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10" t="n">
-        <f aca="false">H4-H3+G4</f>
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>492</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>390.67</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -708,32 +768,31 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>790</v>
+        <v>724</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>24.68</v>
+        <v>22.62</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <f aca="false">H5-H4+G5</f>
-        <v>981.4</v>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>740</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>241.4</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>39.7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -741,32 +800,31 @@
         <v>15</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>704</v>
+        <v>988</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>24.27</v>
+        <v>31.87</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <f aca="false">H6-H5+G6</f>
-        <v>1092.7</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>654</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>680.1</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -774,32 +832,31 @@
         <v>16</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>967</v>
+        <v>575</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>29.3</v>
+        <v>20.53</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <f aca="false">H7-H6+G7</f>
-        <v>1007.3</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>917</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>770.4</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -807,32 +864,31 @@
         <v>17</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>999</v>
+        <v>1114</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>33.3</v>
+        <v>33.75</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <f aca="false">H8-H7+G8</f>
-        <v>1104.6</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -840,32 +896,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>403</v>
+        <v>986</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>13.89</v>
+        <v>34</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="n">
-        <f aca="false">H9-H8+G9</f>
-        <v>1049.3</v>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>353</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>1622.3</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I9" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -873,32 +928,31 @@
         <v>19</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>22.27</v>
+        <v>22.86</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <f aca="false">H10-H9+G10</f>
-        <v>1157.1</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>685</v>
-      </c>
-      <c r="H10" s="11" t="n">
-        <v>2094.4</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -906,32 +960,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>914</v>
+        <v>690</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>31.51</v>
+        <v>21.56</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <f aca="false">H11-H10+G11</f>
-        <v>1026.2</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>864</v>
-      </c>
-      <c r="H11" s="11" t="n">
-        <v>2256.6</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I11" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -939,32 +992,31 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>80</v>
+        <v>1966</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>2.42</v>
+        <v>65.53</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <f aca="false">H12-H11+G12</f>
-        <v>1276.8</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11" t="n">
-        <v>3503.4</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I12" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J12" s="10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -972,26 +1024,25 @@
         <v>22</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>807</v>
+        <v>1022</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>26.9</v>
+        <v>36.5</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" s="11" t="n">
-        <f aca="false">H13-H12+G13</f>
-        <v>1215.9</v>
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>757</v>
-      </c>
-      <c r="H13" s="11" t="n">
-        <v>3962.3</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I13" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J13" s="10" t="n">
         <v>0</v>
@@ -1005,29 +1056,28 @@
         <v>23</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>789</v>
+        <v>636</v>
       </c>
       <c r="D14" s="11" t="n">
-        <v>27.2</v>
+        <v>19.27</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F14" s="11" t="n">
-        <f aca="false">H14-H13+G14</f>
-        <v>393.07</v>
+        <v>33</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>481</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>739</v>
-      </c>
-      <c r="H14" s="11" t="n">
-        <v>3616.37</v>
+        <v>481</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>109.18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1038,29 +1088,29 @@
         <v>24</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>0</v>
+        <v>1487</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>0</v>
+        <v>49.56</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F15" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10" t="n">
         <f aca="false">H15-H14+G15</f>
-        <v>382.49</v>
+        <v>309</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="n">
-        <v>3998.86</v>
+        <v>309</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="n">
-        <v>0</v>
+        <v>1178</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>835.37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1071,57 +1121,467 @@
         <v>25</v>
       </c>
       <c r="C16" s="10" t="n">
+        <v>948</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>456</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>456</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>492</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>390.67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>790</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <f aca="false">H17-H16+G17</f>
+        <v>981.4</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>740</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>241.4</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>704</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <f aca="false">H18-H17+G18</f>
+        <v>1092.7</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>654</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>680.1</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>967</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <f aca="false">H19-H18+G19</f>
+        <v>1007.3</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>917</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>770.4</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>999</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <f aca="false">H20-H19+G20</f>
+        <v>1104.6</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>949</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>926</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>403</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <f aca="false">H21-H20+G21</f>
+        <v>1049.3</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>353</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>1622.3</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>735</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <f aca="false">H22-H21+G22</f>
+        <v>1157.1</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>685</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>2094.4</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>914</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <f aca="false">H23-H22+G23</f>
+        <v>1026.2</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>2256.6</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <f aca="false">H24-H23+G24</f>
+        <v>1276.8</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>3503.4</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>807</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <f aca="false">H25-H24+G25</f>
+        <v>1215.9</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>757</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <v>3962.3</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>789</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <f aca="false">H26-H25+G26</f>
+        <v>393.07</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>739</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>3616.37</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <f aca="false">H27-H26+G27</f>
+        <v>382.49</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>3998.86</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="n">
         <v>678</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D28" s="11" t="n">
         <v>23.37</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E28" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="F16" s="11" t="n">
-        <f aca="false">H16-H15+G16</f>
+      <c r="F28" s="11" t="n">
+        <f aca="false">H28-H27+G28</f>
         <v>340.63</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G28" s="10" t="n">
         <v>628</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H28" s="11" t="n">
         <v>3711.49</v>
       </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="I28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+    </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2083,7 +2543,18 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2100,10 +2571,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1003"/>
+  <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2154,7 +2625,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -2163,516 +2634,2958 @@
         <v>280</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>8.48</v>
+        <v>8.75</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>230</v>
-      </c>
-      <c r="H2" s="11" t="n">
-        <v>3912.12</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>35.29</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>480</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>480</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>1280</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>640</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>680</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>360</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D13" s="10" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>230</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>230</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>3912.12</v>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" s="11" t="n">
+        <v>35.29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>360</v>
+      </c>
+      <c r="D15" s="10" t="n">
         <v>12</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <f aca="false">H15-H14+G15</f>
+        <v>97.2400000000002</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>310</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>3699.36</v>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>480</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>143.44</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>430</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>3412.8</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>280</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <f aca="false">H17-H16+G17</f>
+        <v>308.44</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>230</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>3491.24</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>320</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <f aca="false">H18-H17+G18</f>
+        <v>343.42</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>270</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>3564.66</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>520</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <f aca="false">H19-H18+G19</f>
+        <v>316.58</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>470</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>3411.24</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>520</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <f aca="false">H20-H19+G20</f>
+        <v>347.16</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>470</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>3288.4</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>2480</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>85.51</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <f aca="false">H21-H20+G21</f>
+        <v>329.78</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>2430</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>1188.18</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <f aca="false">H22-H21+G22</f>
+        <v>363.82</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>1552</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>448</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>351.31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>680</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <f aca="false">H23-H22+G23</f>
+        <v>323</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>323</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>357</v>
+      </c>
+      <c r="J23" s="11" t="n">
+        <v>341.74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>720</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <f aca="false">H24-H23+G24</f>
+        <v>401</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>401</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>319</v>
+      </c>
+      <c r="J24" s="11" t="n">
+        <v>303.57</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>720</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <f aca="false">H25-H24+G25</f>
+        <v>382</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>382</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>338</v>
+      </c>
+      <c r="J25" s="11" t="n">
+        <v>321.86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>760</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <f aca="false">H26-H25+G26</f>
+        <v>1298.84</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>710</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>588.84</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" s="11" t="n">
+        <v>47.59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <f aca="false">H27-H26+G27</f>
+        <v>1263.88</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>1852.72</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <f aca="false">H28-H27+G28</f>
+        <v>1125.56</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>2978.28</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K1015"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>289</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>9.63</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="n">
-        <f aca="false">H3-H2+G3</f>
-        <v>97.2400000000002</v>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>310</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>3699.36</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>35.43</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>480</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>16</v>
+        <v>271</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>9.34</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="n">
-        <f aca="false">H4-H3+G4</f>
-        <v>143.44</v>
+        <v>29</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>430</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>3412.8</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>39.7</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <f aca="false">H5-H4+G5</f>
-        <v>308.44</v>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>230</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>3491.24</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>39.7</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>11.03</v>
+        <v>12.93</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <f aca="false">H6-H5+G6</f>
-        <v>343.42</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>270</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>3564.66</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>520</v>
+        <v>277</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>15.75</v>
+        <v>9.89</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <f aca="false">H7-H6+G7</f>
-        <v>316.58</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>470</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>3411.24</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>520</v>
+        <v>269</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>17.33</v>
+        <v>8.15</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <f aca="false">H8-H7+G8</f>
-        <v>347.16</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>470</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>3288.4</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>2480</v>
+        <v>230</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>85.51</v>
+        <v>7.93</v>
       </c>
       <c r="E9" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="F9" s="11" t="n">
-        <f aca="false">H9-H8+G9</f>
-        <v>329.78</v>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>2430</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>1188.18</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I9" s="10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>2000</v>
+        <v>248</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>60.6</v>
+        <v>7.75</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <f aca="false">H10-H9+G10</f>
-        <v>363.82</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="10" t="n">
-        <v>448</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>351.31</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>680</v>
+        <v>281</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>23.44</v>
+        <v>9.36</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="n">
-        <f aca="false">H11-H10+G11</f>
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="10" t="n">
-        <v>357</v>
-      </c>
-      <c r="J11" s="11" t="n">
-        <v>341.74</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>720</v>
+        <v>235</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>21.81</v>
+        <v>7.83</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10" t="n">
-        <f aca="false">H12-H11+G12</f>
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="10" t="n">
-        <v>319</v>
-      </c>
-      <c r="J12" s="11" t="n">
-        <v>303.57</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>720</v>
-      </c>
-      <c r="D13" s="10" t="n">
-        <v>24</v>
+        <v>204</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>7.03</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10" t="n">
-        <f aca="false">H13-H12+G13</f>
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="10" t="n">
-        <v>338</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>321.86</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>760</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>26.2</v>
+        <v>644</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>20.12</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" s="10" t="n">
-        <f aca="false">H14-H13+G14</f>
-        <v>1298.84</v>
+        <v>1754</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>710</v>
-      </c>
-      <c r="H14" s="11" t="n">
-        <v>588.84</v>
+        <v>594</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>594</v>
       </c>
       <c r="I14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J14" s="11" t="n">
-        <v>47.59</v>
+      <c r="K14" s="11" t="n">
+        <v>35.29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <v>0</v>
+        <v>767</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>25.56</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" s="10" t="n">
-        <f aca="false">H15-H14+G15</f>
-        <v>1263.88</v>
+        <v>1159</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="n">
-        <v>1852.72</v>
+        <f aca="false">I15-I14+H15</f>
+        <v>717</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>717</v>
       </c>
       <c r="I15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="11" t="n">
-        <v>0</v>
+      <c r="J15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K15" s="11" t="n">
+        <v>35.43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="n">
-        <v>0</v>
+        <v>941</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>33.6</v>
       </c>
       <c r="E16" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>1543</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <f aca="false">I16-I15+H16</f>
+        <v>891</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>891</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K16" s="11" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>329</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>1681</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <f aca="false">I17-I16+H17</f>
+        <v>179</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>179</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K17" s="11" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>393</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="E18" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <f aca="false">H16-H15+G16</f>
-        <v>1125.56</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="n">
-        <v>2978.28</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="F18" s="10" t="n">
+        <v>1904</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <f aca="false">I18-I17+H18</f>
+        <v>343</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>343</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>364</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>1753</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <f aca="false">I19-I18+H19</f>
+        <v>314</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>314</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K19" s="11" t="n">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>1928</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <f aca="false">I20-I19+H20</f>
+        <v>350</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>350</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" s="11" t="n">
+        <v>46.94</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>1761</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <f aca="false">I21-I20+H21</f>
+        <v>262</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>262</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>37.65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>376</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>1979</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <f aca="false">I22-I21+H22</f>
+        <v>326</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>326</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="11" t="n">
+        <v>47.31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>326</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>1742</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <f aca="false">I23-I22+H23</f>
+        <v>276</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>276</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="11" t="n">
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>304</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>9.21</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>2078</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <f aca="false">I24-I23+H24</f>
+        <v>254</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>254</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>282</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>1969</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <f aca="false">I25-I24+H25</f>
+        <v>232</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>232</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>238</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>1897</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <f aca="false">I26-I25+H26</f>
+        <v>188</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>188</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>295</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>1908</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <f aca="false">I27-I26+H27</f>
+        <v>245</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>245</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K27" s="11" t="n">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>237</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>1668</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <f aca="false">I28-I27+H28</f>
+        <v>187</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>187</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K28" s="11" t="n">
+        <v>48.06</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+    </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3633,6 +6546,18 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3644,15 +6569,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1003"/>
+  <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3660,14 +6585,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="27.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3680,597 +6604,1090 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>644</v>
-      </c>
-      <c r="D2" s="11" t="n">
-        <v>20.12</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K2" s="11" t="n">
-        <v>35.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>767</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>25.56</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E3" s="10" t="n">
         <v>30</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>1159</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10" t="n">
-        <f aca="false">I3-I2+H3</f>
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>35.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>941</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>33.6</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="n">
-        <f aca="false">I4-I3+H4</f>
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>891</v>
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <v>39.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>329</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>9.96</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10" t="n">
-        <f aca="false">I5-I4+H5</f>
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="I5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K5" s="11" t="n">
-        <v>39.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>393</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>13.55</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>1904</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10" t="n">
-        <f aca="false">I6-I5+H6</f>
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="I6" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K6" s="11" t="n">
-        <v>39.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>364</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>11.03</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10" t="n">
-        <f aca="false">I7-I6+H7</f>
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K7" s="11" t="n">
-        <v>39.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>12.9</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>1928</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10" t="n">
-        <f aca="false">I8-I7+H8</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K8" s="11" t="n">
-        <v>46.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>10.06</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>1761</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10" t="n">
-        <f aca="false">I9-I8+H9</f>
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="H9" s="10" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="I9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <v>37.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>376</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>12.12</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10" t="n">
-        <f aca="false">I10-I9+H10</f>
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K10" s="11" t="n">
-        <v>47.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>326</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>11.24</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>1742</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10" t="n">
-        <f aca="false">I11-I10+H11</f>
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="I11" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K11" s="11" t="n">
-        <v>47.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>304</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>9.21</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10" t="n">
-        <f aca="false">I12-I11+H12</f>
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="I12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K12" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>282</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>9.4</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>1969</v>
+        <v>0</v>
       </c>
       <c r="G13" s="10" t="n">
-        <f aca="false">I13-I12+H13</f>
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="H13" s="10" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="I13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K13" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>238</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>8.5</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>1897</v>
+        <v>0</v>
       </c>
       <c r="G14" s="10" t="n">
-        <f aca="false">I14-I13+H14</f>
-        <v>188</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>188</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>200.24</v>
       </c>
       <c r="I14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>0</v>
+      <c r="J14" s="11" t="n">
+        <v>19.23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>295</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>8.93</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>1908</v>
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <f aca="false">H15-H14+G15</f>
+        <v>4.41999999999999</v>
       </c>
       <c r="G15" s="10" t="n">
-        <f aca="false">I15-I14+H15</f>
-        <v>245</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>204.66</v>
       </c>
       <c r="I15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K15" s="11" t="n">
-        <v>39.85</v>
+      <c r="J15" s="11" t="n">
+        <v>19.31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="10" t="n">
-        <v>237</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>7.9</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="E16" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <f aca="false">H16-H15+G16</f>
+        <v>6.52000000000001</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>211.18</v>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <f aca="false">H17-H16+G17</f>
+        <v>14.02</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <f aca="false">H18-H17+G18</f>
+        <v>15.61</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>240.81</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <f aca="false">H19-H18+G19</f>
+        <v>14.39</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>19.43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <f aca="false">H20-H19+G20</f>
+        <v>15.78</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>270.98</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="10" t="n">
-        <v>1668</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <f aca="false">I16-I15+H16</f>
-        <v>187</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <v>187</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="K16" s="11" t="n">
-        <v>48.06</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <f aca="false">H21-H20+G21</f>
+        <v>14.99</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>285.97</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <f aca="false">H22-H21+G22</f>
+        <v>16.53</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <f aca="false">H23-H22+G23</f>
+        <v>14.66</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>317.16</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="n">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <f aca="false">H24-H23+G24</f>
+        <v>18.24</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="n">
+        <v>23.42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <f aca="false">H25-H24+G25</f>
+        <v>17.37</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <v>352.77</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11" t="n">
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <f aca="false">H26-H25+G26</f>
+        <v>8.55000000000001</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>361.32</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11" t="n">
+        <v>23.41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <f aca="false">H27-H26+G27</f>
+        <v>8.31</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>369.63</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="n">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <f aca="false">H28-H27+G28</f>
+        <v>7.41000000000003</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>377.04</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="n">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>32</v>
+      </c>
+    </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5231,6 +8648,18 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5242,15 +8671,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1003"/>
+  <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5258,7 +8687,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
@@ -5277,7 +8706,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -5301,19 +8730,19 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="n">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>3.13</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>0</v>
@@ -5321,505 +8750,903 @@
       <c r="G2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="11" t="n">
-        <v>200.24</v>
+      <c r="H2" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="11" t="n">
-        <v>19.23</v>
+      <c r="J2" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>3.1</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <f aca="false">H3-H2+G3</f>
-        <v>4.41999999999999</v>
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="11" t="n">
-        <v>204.66</v>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="11" t="n">
-        <v>19.31</v>
+      <c r="J3" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>3.19</v>
       </c>
       <c r="E4" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="F4" s="11" t="n">
-        <f aca="false">H4-H3+G4</f>
-        <v>6.52000000000001</v>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="11" t="n">
-        <v>211.18</v>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="11" t="n">
-        <v>19.31</v>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="n">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>3.63</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <f aca="false">H5-H4+G5</f>
-        <v>14.02</v>
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="11" t="n">
-        <v>225.2</v>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="n">
-        <v>19.31</v>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>2.75</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <f aca="false">H6-H5+G6</f>
-        <v>15.61</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="11" t="n">
-        <v>240.81</v>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="n">
-        <v>19.31</v>
+      <c r="J6" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="n">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>2.93</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="F7" s="11" t="n">
-        <f aca="false">H7-H6+G7</f>
-        <v>14.39</v>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="11" t="n">
-        <v>255.2</v>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="11" t="n">
-        <v>19.43</v>
+      <c r="J7" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>3.36</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <f aca="false">H8-H7+G8</f>
-        <v>15.78</v>
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="11" t="n">
-        <v>270.98</v>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="11" t="n">
-        <v>23.08</v>
+      <c r="J8" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>2.4</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <f aca="false">H9-H8+G9</f>
-        <v>14.99</v>
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="n">
-        <v>285.97</v>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="11" t="n">
-        <v>22.26</v>
+      <c r="J9" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>3.25</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <f aca="false">H10-H9+G10</f>
-        <v>16.53</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="11" t="n">
-        <v>302.5</v>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="11" t="n">
-        <v>23.28</v>
+      <c r="J10" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>2.83</v>
       </c>
       <c r="E11" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F11" s="11" t="n">
-        <f aca="false">H11-H10+G11</f>
-        <v>14.66</v>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="n">
-        <v>317.16</v>
+      <c r="H11" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I11" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="11" t="n">
-        <v>23.51</v>
+      <c r="J11" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="n">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>3.15</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <f aca="false">H12-H11+G12</f>
-        <v>18.24</v>
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="11" t="n">
-        <v>335.4</v>
+      <c r="H12" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="11" t="n">
-        <v>23.42</v>
+      <c r="J12" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="n">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="D13" s="11" t="n">
+        <v>4.14</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F13" s="11" t="n">
-        <f aca="false">H13-H12+G13</f>
-        <v>17.37</v>
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="11" t="n">
-        <v>352.77</v>
+      <c r="H13" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="I13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="11" t="n">
-        <v>23.43</v>
+      <c r="J13" s="10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>3.35</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="F14" s="11" t="n">
-        <f aca="false">H14-H13+G14</f>
-        <v>8.55000000000001</v>
+        <v>31</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>54</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="H14" s="11" t="n">
-        <v>361.32</v>
+        <v>372.09</v>
       </c>
       <c r="I14" s="10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J14" s="11" t="n">
-        <v>23.41</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>2.43</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="11" t="n">
         <f aca="false">H15-H14+G15</f>
-        <v>8.31</v>
+        <v>30.94</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H15" s="11" t="n">
-        <v>369.63</v>
+        <v>375.03</v>
       </c>
       <c r="I15" s="10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J15" s="11" t="n">
-        <v>23.49</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <v>3.32</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="11" t="n">
         <f aca="false">H16-H15+G16</f>
-        <v>7.41000000000003</v>
+        <v>45.64</v>
       </c>
       <c r="G16" s="10" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H16" s="11" t="n">
-        <v>377.04</v>
+        <v>377.67</v>
       </c>
       <c r="I16" s="10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J16" s="11" t="n">
-        <v>23.64</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>52.45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>114</v>
+      </c>
+      <c r="D17" s="11" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <f aca="false">H17-H16+G17</f>
+        <v>98.14</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>411.81</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>59.64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <f aca="false">H18-H17+G18</f>
+        <v>109.27</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>482.08</v>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="11" t="n">
+        <v>52.45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>105</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <f aca="false">H19-H18+G19</f>
+        <v>100.73</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="H19" s="11" t="n">
+        <v>527.81</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11" t="n">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="D20" s="11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F20" s="11" t="n">
+        <f aca="false">H20-H19+G20</f>
+        <v>110.46</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="H20" s="11" t="n">
+        <v>602.27</v>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" s="11" t="n">
+        <v>58.53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" s="11" t="n">
+        <f aca="false">H21-H20+G21</f>
+        <v>104.93</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>54.43</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <f aca="false">H22-H21+G22</f>
+        <v>115.71</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11" t="n">
+        <v>738.91</v>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" s="11" t="n">
+        <v>59.66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>117</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <f aca="false">H23-H22+G23</f>
+        <v>102.62</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>774.53</v>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" s="11" t="n">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>113</v>
+      </c>
+      <c r="D24" s="11" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" s="11" t="n">
+        <f aca="false">H24-H23+G24</f>
+        <v>127.68</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="H24" s="11" t="n">
+        <v>839.21</v>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" s="11" t="n">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <f aca="false">H25-H24+G25</f>
+        <v>121.59</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <v>895.8</v>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" s="11" t="n">
+        <v>68.21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <f aca="false">H26-H25+G26</f>
+        <v>8.55000000000007</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <v>864.35</v>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" s="11" t="n">
+        <v>59.94</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <f aca="false">H27-H26+G27</f>
+        <v>8.30999999999995</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <v>807.66</v>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" s="11" t="n">
+        <v>68.34</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>113</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F28" s="11" t="n">
+        <f aca="false">H28-H27+G28</f>
+        <v>7.41000000000008</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="H28" s="11" t="n">
+        <v>752.07</v>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" s="11" t="n">
+        <v>68.65</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12"/>
+    </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6780,1555 +10607,18 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1003"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.72"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="n">
-        <v>104</v>
-      </c>
-      <c r="D2" s="11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="G2" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="H2" s="11" t="n">
-        <v>372.09</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>55.22</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <f aca="false">H3-H2+G3</f>
-        <v>30.94</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>375.03</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>48.18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>93</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="F4" s="11" t="n">
-        <f aca="false">H4-H3+G4</f>
-        <v>45.64</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>43</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>377.67</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>52.45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>114</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <f aca="false">H5-H4+G5</f>
-        <v>98.14</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>64</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>411.81</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>59.64</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>89</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="E6" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" s="11" t="n">
-        <f aca="false">H6-H5+G6</f>
-        <v>109.27</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>482.08</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>52.45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>105</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E7" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <f aca="false">H7-H6+G7</f>
-        <v>100.73</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>55</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>527.81</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>59.85</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>86</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" s="11" t="n">
-        <f aca="false">H8-H7+G8</f>
-        <v>110.46</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>602.27</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>58.53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>96</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="E9" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F9" s="11" t="n">
-        <f aca="false">H9-H8+G9</f>
-        <v>104.93</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>661.2</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>54.43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>88</v>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="E10" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F10" s="11" t="n">
-        <f aca="false">H10-H9+G10</f>
-        <v>115.71</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>38</v>
-      </c>
-      <c r="H10" s="11" t="n">
-        <v>738.91</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>59.66</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>117</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <f aca="false">H11-H10+G11</f>
-        <v>102.62</v>
-      </c>
-      <c r="G11" s="10" t="n">
-        <v>67</v>
-      </c>
-      <c r="H11" s="11" t="n">
-        <v>774.53</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J11" s="11" t="n">
-        <v>68.37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>113</v>
-      </c>
-      <c r="D12" s="11" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <f aca="false">H12-H11+G12</f>
-        <v>127.68</v>
-      </c>
-      <c r="G12" s="10" t="n">
-        <v>63</v>
-      </c>
-      <c r="H12" s="11" t="n">
-        <v>839.21</v>
-      </c>
-      <c r="I12" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" s="11" t="n">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>115</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="E13" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11" t="n">
-        <f aca="false">H13-H12+G13</f>
-        <v>121.59</v>
-      </c>
-      <c r="G13" s="10" t="n">
-        <v>65</v>
-      </c>
-      <c r="H13" s="11" t="n">
-        <v>895.8</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>68.21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>90</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="E14" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="F14" s="11" t="n">
-        <f aca="false">H14-H13+G14</f>
-        <v>8.55000000000007</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H14" s="11" t="n">
-        <v>864.35</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>59.94</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>115</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="E15" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11" t="n">
-        <f aca="false">H15-H14+G15</f>
-        <v>8.30999999999995</v>
-      </c>
-      <c r="G15" s="10" t="n">
-        <v>65</v>
-      </c>
-      <c r="H15" s="11" t="n">
-        <v>807.66</v>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>68.34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>113</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="E16" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11" t="n">
-        <f aca="false">H16-H15+G16</f>
-        <v>7.41000000000008</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>63</v>
-      </c>
-      <c r="H16" s="11" t="n">
-        <v>752.07</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>68.65</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Curral do Fogo Velho CH" sheetId="1" state="visible" r:id="rId3"/>
@@ -356,23 +356,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -614,7 +597,7 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4532,7 +4515,7 @@
   </sheetPr>
   <dimension ref="A1:K1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6576,8 +6559,8 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7507,186 +7490,43 @@
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
-        <v>44531</v>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>28</v>
-      </c>
+      <c r="A31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
-        <v>44593</v>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>29</v>
-      </c>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
-        <v>44621</v>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>32</v>
-      </c>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
-        <v>44652</v>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>31</v>
-      </c>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
-        <v>44682</v>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>28</v>
-      </c>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
-        <v>44713</v>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>33</v>
-      </c>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
-        <v>44743</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>29</v>
-      </c>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>32</v>
-      </c>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
-        <v>44805</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>30</v>
-      </c>
+      <c r="A41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>29</v>
-      </c>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>32</v>
-      </c>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8678,7 +8518,7 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="44">
   <si>
     <t xml:space="preserve">Localidade</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">FEV/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR/24</t>
   </si>
   <si>
     <t xml:space="preserve">Curral do Fogo Novo SI</t>
@@ -597,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,7 +1528,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>655</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <f aca="false">H29-H28+G29</f>
+        <v>376.97</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>605</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>3483.46</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="12"/>
     </row>
@@ -2556,8 +2591,8 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2608,7 +2643,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -2640,7 +2675,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -2648,7 +2683,7 @@
       <c r="C3" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <v>21.42</v>
       </c>
       <c r="E3" s="10" t="n">
@@ -2672,7 +2707,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -2680,7 +2715,7 @@
       <c r="C4" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <v>20.68</v>
       </c>
       <c r="E4" s="10" t="n">
@@ -2704,7 +2739,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -2736,7 +2771,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -2768,7 +2803,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -2800,7 +2835,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -2832,7 +2867,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -2864,7 +2899,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -2896,7 +2931,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -2928,7 +2963,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -2960,7 +2995,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -2968,7 +3003,7 @@
       <c r="C13" s="10" t="n">
         <v>360</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="11" t="n">
         <v>12.85</v>
       </c>
       <c r="E13" s="10" t="n">
@@ -2992,7 +3027,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -3024,7 +3059,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -3032,7 +3067,7 @@
       <c r="C15" s="10" t="n">
         <v>360</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="11" t="n">
         <v>12</v>
       </c>
       <c r="E15" s="10" t="n">
@@ -3057,7 +3092,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -3065,7 +3100,7 @@
       <c r="C16" s="10" t="n">
         <v>480</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="11" t="n">
         <v>16</v>
       </c>
       <c r="E16" s="10" t="n">
@@ -3090,7 +3125,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -3123,7 +3158,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -3156,7 +3191,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -3189,7 +3224,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -3222,7 +3257,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -3255,7 +3290,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -3288,7 +3323,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -3321,7 +3356,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -3354,7 +3389,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -3362,7 +3397,7 @@
       <c r="C25" s="10" t="n">
         <v>720</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="11" t="n">
         <v>24</v>
       </c>
       <c r="E25" s="10" t="n">
@@ -3387,7 +3422,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -3395,7 +3430,7 @@
       <c r="C26" s="10" t="n">
         <v>760</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="11" t="n">
         <v>26.2</v>
       </c>
       <c r="E26" s="10" t="n">
@@ -3420,7 +3455,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -3428,7 +3463,7 @@
       <c r="C27" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D27" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="10" t="n">
@@ -3453,7 +3488,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -3461,7 +3496,7 @@
       <c r="C28" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D28" s="11" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="10" t="n">
@@ -3484,7 +3519,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>720</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <f aca="false">H29-H28+G29</f>
+        <v>1245.64</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>670</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>3553.92</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4515,8 +4582,8 @@
   </sheetPr>
   <dimension ref="A1:K1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4551,7 +4618,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -4571,7 +4638,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -4606,7 +4673,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -4641,7 +4708,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -4676,7 +4743,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -4711,7 +4778,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -4746,7 +4813,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -4781,7 +4848,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -4816,7 +4883,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -4851,7 +4918,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -4886,7 +4953,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -4921,7 +4988,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -4956,7 +5023,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -4991,7 +5058,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -5026,7 +5093,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -5062,7 +5129,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -5098,7 +5165,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -5134,7 +5201,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -5170,7 +5237,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -5206,7 +5273,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -5242,7 +5309,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -5278,7 +5345,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -5314,7 +5381,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -5350,7 +5417,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -5386,7 +5453,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -5422,7 +5489,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -5458,7 +5525,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -5494,7 +5561,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -5528,7 +5595,43 @@
         <v>48.06</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>242</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <f aca="false">1040+791</f>
+        <v>1831</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <f aca="false">I29-I28+H29</f>
+        <v>192</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K29" s="11" t="n">
+        <v>47.92</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
@@ -6559,8 +6662,8 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6611,7 +6714,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -6643,7 +6746,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -6675,7 +6778,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -6707,7 +6810,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -6739,7 +6842,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -6771,7 +6874,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -6803,7 +6906,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -6835,7 +6938,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -6867,7 +6970,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -6899,7 +7002,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -6931,7 +7034,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -6963,7 +7066,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -6995,7 +7098,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -7027,7 +7130,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -7060,7 +7163,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -7093,7 +7196,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -7126,7 +7229,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -7159,7 +7262,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -7192,7 +7295,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -7225,7 +7328,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -7258,7 +7361,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -7291,7 +7394,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -7324,7 +7427,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -7357,7 +7460,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -7390,7 +7493,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -7423,7 +7526,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -7456,7 +7559,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -7487,7 +7590,39 @@
         <v>23.64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <f aca="false">H29-H28+G29</f>
+        <v>8.19</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>385.23</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>23.57</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
@@ -8518,8 +8653,8 @@
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8570,7 +8705,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -8602,7 +8737,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -8634,7 +8769,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -8666,7 +8801,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
@@ -8698,7 +8833,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -8730,7 +8865,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -8762,7 +8897,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -8794,7 +8929,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -8826,7 +8961,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -8858,7 +8993,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -8890,7 +9025,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -8922,7 +9057,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -8954,7 +9089,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -8986,7 +9121,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -9019,7 +9154,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -9052,7 +9187,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -9085,7 +9220,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -9118,7 +9253,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -9151,7 +9286,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -9184,7 +9319,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -9217,7 +9352,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -9250,7 +9385,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -9283,7 +9418,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -9316,7 +9451,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -9349,7 +9484,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -9382,7 +9517,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -9415,7 +9550,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -9446,7 +9581,39 @@
         <v>68.65</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="n">
+        <v>93</v>
+      </c>
+      <c r="D29" s="11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F29" s="11" t="n">
+        <f aca="false">H29-H28+G29</f>
+        <v>8.18999999999994</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="H29" s="11" t="n">
+        <v>717.26</v>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" s="11" t="n">
+        <v>60.27</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Curral do Fogo Velho CH" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Curral do Fogo Novo SI" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sapecado 1" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Sapecado 2" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="Coqueiral" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Curral do Fogo Velho CH" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Curral do Fogo Novo SI" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sapecado 1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sapecado 2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Coqueiral" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="49">
   <si>
     <t xml:space="preserve">Localidade</t>
   </si>
@@ -143,6 +143,21 @@
     <t xml:space="preserve">MAR/24</t>
   </si>
   <si>
+    <t xml:space="preserve">ABR/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUN/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUL/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGO/24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Curral do Fogo Novo SI</t>
   </si>
   <si>
@@ -171,7 +186,7 @@
   <fonts count="6">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -227,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -267,6 +282,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -293,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,8 +364,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -422,200 +464,31 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1194,7 +1067,7 @@
       <c r="I18" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1227,7 +1100,7 @@
       <c r="I19" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,7 +1133,7 @@
       <c r="I20" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1293,7 +1166,7 @@
       <c r="I21" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1199,7 @@
       <c r="I22" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1359,7 +1232,7 @@
       <c r="I23" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1392,7 +1265,7 @@
       <c r="I24" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +1298,7 @@
       <c r="I25" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1458,7 +1331,7 @@
       <c r="I26" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1491,7 +1364,7 @@
       <c r="I27" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1522,9 +1395,9 @@
         <v>3711.49</v>
       </c>
       <c r="I28" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" s="11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1535,70 +1408,220 @@
       <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="12" t="n">
         <v>655</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="13" t="n">
         <v>23.39</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="13" t="n">
         <f aca="false">H29-H28+G29</f>
         <v>376.97</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="12" t="n">
         <v>605</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="13" t="n">
         <v>3483.46</v>
       </c>
       <c r="I29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" s="13" t="n">
+        <f aca="false">H30-H29+G30</f>
+        <v>342.7</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="n">
+        <v>3826.16</v>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>585</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F31" s="13" t="n">
+        <f aca="false">H31-H30+G31</f>
+        <v>379.5</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>535</v>
+      </c>
+      <c r="H31" s="15" t="n">
+        <v>3670.66</v>
+      </c>
+      <c r="I31" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="14" t="n">
+        <v>553</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <f aca="false">H32-H31+G32</f>
+        <v>858</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>503</v>
+      </c>
+      <c r="H32" s="15" t="n">
+        <v>4025.66</v>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14" t="n">
+        <v>229</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <f aca="false">H33-H32+G33</f>
+        <v>691.6</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>179</v>
+      </c>
+      <c r="H33" s="15" t="n">
+        <v>4538.26</v>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="14" t="n">
+        <v>502</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <f aca="false">H34-H33+G34</f>
+        <v>774.8</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>452</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>4861.06</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2575,7 +2598,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -2585,28 +2608,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2643,7 +2668,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -2675,7 +2700,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -2707,7 +2732,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -2739,7 +2764,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -2771,7 +2796,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -2803,7 +2828,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -2835,7 +2860,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -2867,7 +2892,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -2899,7 +2924,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -2931,7 +2956,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -2963,7 +2988,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -2995,7 +3020,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -3027,7 +3052,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -3059,7 +3084,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -3092,7 +3117,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -3125,7 +3150,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -3158,7 +3183,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -3191,7 +3216,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -3224,7 +3249,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -3257,7 +3282,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -3290,7 +3315,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -3323,7 +3348,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -3356,7 +3381,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -3389,7 +3414,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -3422,7 +3447,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -3455,7 +3480,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -3488,7 +3513,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -3521,77 +3546,231 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="12" t="n">
         <v>720</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="13" t="n">
         <v>25.71</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="12" t="n">
         <f aca="false">H29-H28+G29</f>
         <v>1245.64</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="12" t="n">
         <v>670</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="13" t="n">
         <v>3553.92</v>
       </c>
-      <c r="I29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="I29" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <f aca="false">H30-H29+G30</f>
+        <v>2322.4</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>5876.32</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>640</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <f aca="false">H31-H30+G31</f>
+        <v>1254</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>590</v>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>6540.32</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="14" t="n">
+        <v>640</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <f aca="false">H32-H31+G32</f>
+        <v>706.200000000001</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>590</v>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>6656.52</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" s="15" t="n">
+        <v>14.27</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>32</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <f aca="false">H33-H32+G33</f>
+        <v>569.24</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>7225.76</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>42.67</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="14" t="n">
+        <v>440</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <f aca="false">H34-H33+G34</f>
+        <v>637.719999999999</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>390</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>7473.48</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>50.78</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
+      <c r="A44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4566,7 +4745,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -4576,29 +4755,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="27.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4618,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -4638,7 +4819,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -4673,7 +4854,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -4708,7 +4889,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -4743,7 +4924,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -4778,7 +4959,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -4813,7 +4994,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -4848,7 +5029,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -4883,7 +5064,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -4918,7 +5099,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -4953,7 +5134,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -4988,7 +5169,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -5023,7 +5204,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -5058,7 +5239,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -5093,7 +5274,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -5129,7 +5310,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -5165,7 +5346,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -5201,7 +5382,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -5237,7 +5418,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -5273,7 +5454,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -5309,7 +5490,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -5345,7 +5526,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -5381,7 +5562,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -5417,7 +5598,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -5453,7 +5634,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -5489,7 +5670,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -5525,7 +5706,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -5561,7 +5742,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -5597,80 +5778,247 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="12" t="n">
         <v>242</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="13" t="n">
         <v>8.34</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="12" t="n">
         <f aca="false">1040+791</f>
         <v>1831</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="12" t="n">
         <f aca="false">I29-I28+H29</f>
         <v>192</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H29" s="12" t="n">
         <v>192</v>
       </c>
-      <c r="I29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10" t="n">
+      <c r="I29" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="13" t="n">
         <v>47.92</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>320</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <f aca="false">I30-I29+H30</f>
+        <v>270</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>270</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K30" s="15" t="n">
+        <v>47.75</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>320</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G31" s="12" t="n">
+        <f aca="false">I31-I30+H31</f>
+        <v>270</v>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>270</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K31" s="15" t="n">
+        <v>47.92</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="14" t="n">
+        <v>320</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G32" s="12" t="n">
+        <f aca="false">I32-I31+H32</f>
+        <v>270</v>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>270</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K32" s="15" t="n">
+        <v>50.54</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14" t="n">
+        <v>360</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>1640</v>
+      </c>
+      <c r="G33" s="12" t="n">
+        <f aca="false">I33-I32+H33</f>
+        <v>310</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>310</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" s="15" t="n">
+        <v>51.86</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="14" t="n">
+        <v>360</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G34" s="12" t="n">
+        <f aca="false">I34-I33+H34</f>
+        <v>310</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>310</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" s="15" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6646,7 +6994,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -6656,28 +7004,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6714,7 +7064,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -6746,7 +7096,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -6778,7 +7128,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -6810,7 +7160,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -6842,7 +7192,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -6874,7 +7224,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -6906,7 +7256,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -6938,7 +7288,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -6970,7 +7320,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -7002,7 +7352,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -7034,7 +7384,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -7066,7 +7416,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -7098,7 +7448,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -7130,7 +7480,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -7163,7 +7513,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -7196,7 +7546,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -7229,7 +7579,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -7262,7 +7612,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -7295,7 +7645,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -7328,7 +7678,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -7361,7 +7711,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -7394,7 +7744,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -7427,7 +7777,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -7460,7 +7810,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -7493,7 +7843,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -7526,7 +7876,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -7559,7 +7909,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -7592,7 +7942,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
@@ -7604,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="11" t="n">
         <f aca="false">H29-H28+G29</f>
@@ -7623,45 +7973,197 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <f aca="false">H30-H29+G30</f>
+        <v>7.44999999999999</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="n">
+        <v>392.68</v>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" s="11" t="n">
+        <f aca="false">H31-H30+G31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15" t="n">
+        <v>392.68</v>
+      </c>
+      <c r="I31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>23.57</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <f aca="false">H32-H31+G32</f>
+        <v>8.25</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15" t="n">
+        <v>400.93</v>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15" t="n">
+        <v>24.86</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <f aca="false">H33-H32+G33</f>
+        <v>3.30000000000001</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="n">
+        <v>404.23</v>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>25.52</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <f aca="false">H34-H33+G34</f>
+        <v>2.65999999999997</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>406.89</v>
+      </c>
+      <c r="I34" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>25.09</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8637,7 +9139,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -8647,28 +9149,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8705,7 +9209,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -8737,7 +9241,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -8769,7 +9273,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -8801,9 +9305,9 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10" t="n">
@@ -8833,7 +9337,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -8865,7 +9369,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -8897,7 +9401,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -8929,7 +9433,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -8961,7 +9465,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -8993,7 +9497,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -9025,7 +9529,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -9057,7 +9561,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -9089,7 +9593,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -9121,7 +9625,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -9154,7 +9658,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -9187,7 +9691,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -9220,7 +9724,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -9253,7 +9757,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -9286,7 +9790,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -9319,7 +9823,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -9352,7 +9856,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -9385,7 +9889,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -9418,7 +9922,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -9451,7 +9955,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -9484,7 +9988,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -9517,7 +10021,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -9550,7 +10054,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -9583,7 +10087,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
@@ -9614,45 +10118,112 @@
         <v>60.27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+    </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
+      <c r="A33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
+      <c r="A43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10628,7 +11199,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -315,7 +315,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,6 +390,10 @@
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -477,17 +481,17 @@
       <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.71"/>
   </cols>
   <sheetData>
@@ -2620,17 +2624,17 @@
       <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -4767,18 +4771,18 @@
       <selection pane="bottomLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="27.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.71"/>
   </cols>
   <sheetData>
@@ -7016,17 +7020,17 @@
       <selection pane="bottomLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -9156,22 +9160,22 @@
   <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -10092,29 +10096,29 @@
       <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C29" s="12" t="n">
         <v>93</v>
       </c>
-      <c r="D29" s="11" t="n">
+      <c r="D29" s="13" t="n">
         <v>3.2</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E29" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="F29" s="11" t="n">
+      <c r="F29" s="13" t="n">
         <f aca="false">H29-H28+G29</f>
         <v>8.18999999999994</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G29" s="12" t="n">
         <v>43</v>
       </c>
-      <c r="H29" s="11" t="n">
+      <c r="H29" s="13" t="n">
         <v>717.26</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I29" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="J29" s="11" t="n">
+      <c r="J29" s="13" t="n">
         <v>60.27</v>
       </c>
     </row>
@@ -10125,14 +10129,31 @@
       <c r="B30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
+      <c r="C30" s="19" t="n">
+        <v>104</v>
+      </c>
+      <c r="D30" s="19" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" s="13" t="n">
+        <f aca="false">H30-H29+G30</f>
+        <v>7.45000000000005</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>54</v>
+      </c>
+      <c r="H30" s="19" t="n">
+        <v>670.71</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" s="15" t="n">
+        <v>68.34</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
@@ -10141,14 +10162,31 @@
       <c r="B31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
+      <c r="C31" s="14" t="n">
+        <v>102</v>
+      </c>
+      <c r="D31" s="15" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" s="13" t="n">
+        <f aca="false">H31-H30+G31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="H31" s="15" t="n">
+        <v>618.71</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>68.51</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
@@ -10157,14 +10195,31 @@
       <c r="B32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
+      <c r="C32" s="14" t="n">
+        <v>117</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <f aca="false">H32-H31+G32</f>
+        <v>8.25</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>67</v>
+      </c>
+      <c r="H32" s="15" t="n">
+        <v>559.96</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J32" s="15" t="n">
+        <v>71.94</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
@@ -10173,14 +10228,31 @@
       <c r="B33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="C33" s="14" t="n">
+        <v>63</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <f aca="false">H33-H32+G33</f>
+        <v>82.5</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H33" s="15" t="n">
+        <v>629.46</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>65.4</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
@@ -10189,14 +10261,31 @@
       <c r="B34" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="C34" s="14" t="n">
+        <v>106</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <f aca="false">H34-H33+G34</f>
+        <v>66.5</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H34" s="15" t="n">
+        <v>639.96</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>

--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Curral do Fogo Velho CH" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Curral do Fogo Novo SI" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sapecado 1" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sapecado 2" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Coqueiral" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Curral do Fogo Velho CH" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Curral do Fogo Novo SI" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sapecado 1" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sapecado 2" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Coqueiral" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="54">
   <si>
     <t xml:space="preserve">Localidade</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t xml:space="preserve">AGO/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOV/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEZ/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN/25</t>
   </si>
   <si>
     <t xml:space="preserve">Curral do Fogo Novo SI</t>
@@ -392,8 +407,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -468,30 +483,136 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="20.71"/>
   </cols>
   <sheetData>
@@ -1604,19 +1725,169 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
+      <c r="A35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14" t="n">
+        <v>482</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <f aca="false">H35-H34+G35</f>
+        <v>546</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>432</v>
+      </c>
+      <c r="H35" s="15" t="n">
+        <v>4975.06</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
+      <c r="A36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>446</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <f aca="false">H36-H35+G36</f>
+        <v>239</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>396</v>
+      </c>
+      <c r="H36" s="15" t="n">
+        <v>4818.06</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
+      <c r="A37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>477</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <f aca="false">H37-H36+G37</f>
+        <v>317.2</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>427</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>4708.26</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" s="15" t="n">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>633</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <f aca="false">H38-H37+G38</f>
+        <v>629.2</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>583</v>
+      </c>
+      <c r="H38" s="15" t="n">
+        <v>4754.46</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
+      <c r="A39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>911</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="13" t="n">
+        <f aca="false">H39-H38+G39</f>
+        <v>816.4</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>861</v>
+      </c>
+      <c r="H39" s="15" t="n">
+        <v>4709.86</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>50.72</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -2602,7 +2873,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -2612,29 +2883,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1015"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -2672,7 +2943,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -2704,7 +2975,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -2736,7 +3007,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -2768,7 +3039,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -2800,7 +3071,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -2832,7 +3103,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -2864,7 +3135,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -2896,7 +3167,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -2928,7 +3199,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -2960,7 +3231,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -2992,7 +3263,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -3024,7 +3295,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -3056,7 +3327,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -3088,7 +3359,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -3121,7 +3392,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -3154,7 +3425,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -3187,7 +3458,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -3220,7 +3491,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -3253,7 +3524,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -3286,7 +3557,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -3319,7 +3590,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -3352,7 +3623,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -3385,7 +3656,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -3418,7 +3689,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -3451,7 +3722,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -3484,7 +3755,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -3517,7 +3788,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -3550,7 +3821,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>38</v>
@@ -3583,7 +3854,7 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>39</v>
@@ -3604,7 +3875,7 @@
       <c r="G30" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H30" s="14" t="n">
+      <c r="H30" s="15" t="n">
         <v>5876.32</v>
       </c>
       <c r="I30" s="14" t="n">
@@ -3616,7 +3887,7 @@
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>40</v>
@@ -3637,7 +3908,7 @@
       <c r="G31" s="14" t="n">
         <v>590</v>
       </c>
-      <c r="H31" s="14" t="n">
+      <c r="H31" s="15" t="n">
         <v>6540.32</v>
       </c>
       <c r="I31" s="14" t="n">
@@ -3649,7 +3920,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -3670,7 +3941,7 @@
       <c r="G32" s="14" t="n">
         <v>590</v>
       </c>
-      <c r="H32" s="14" t="n">
+      <c r="H32" s="15" t="n">
         <v>6656.52</v>
       </c>
       <c r="I32" s="14" t="n">
@@ -3682,7 +3953,7 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -3703,7 +3974,7 @@
       <c r="G33" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="14" t="n">
+      <c r="H33" s="15" t="n">
         <v>7225.76</v>
       </c>
       <c r="I33" s="14" t="n">
@@ -3715,7 +3986,7 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>43</v>
@@ -3736,7 +4007,7 @@
       <c r="G34" s="14" t="n">
         <v>390</v>
       </c>
-      <c r="H34" s="14" t="n">
+      <c r="H34" s="15" t="n">
         <v>7473.48</v>
       </c>
       <c r="I34" s="14" t="n">
@@ -3747,19 +4018,169 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
+      <c r="A35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14" t="n">
+        <v>320</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F35" s="12" t="n">
+        <f aca="false">H35-H34+G35</f>
+        <v>449.400000000001</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>270</v>
+      </c>
+      <c r="H35" s="15" t="n">
+        <v>7652.88</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>240</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <f aca="false">H36-H35+G36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>190</v>
+      </c>
+      <c r="H36" s="15" t="n">
+        <v>7462.88</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>240</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F37" s="12" t="n">
+        <f aca="false">H37-H36+G37</f>
+        <v>261.08</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>190</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>7533.96</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" s="15" t="n">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <f aca="false">H38-H37+G38</f>
+        <v>517.88</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="n">
+        <v>8051.84</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>50.78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>280</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="F39" s="12" t="n">
+        <f aca="false">H39-H38+G39</f>
+        <v>671.959999999999</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>230</v>
+      </c>
+      <c r="H39" s="15" t="n">
+        <v>8493.8</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>50.78</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -3770,12 +4191,8 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="16"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4745,11 +5162,11 @@
     <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1014" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -4759,30 +5176,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1015"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="27.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.71"/>
   </cols>
   <sheetData>
@@ -4803,7 +5220,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -4823,7 +5240,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -4858,7 +5275,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -4893,7 +5310,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -4928,7 +5345,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -4963,7 +5380,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -4998,7 +5415,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -5033,7 +5450,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -5068,7 +5485,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -5103,7 +5520,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -5138,7 +5555,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -5173,7 +5590,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -5208,7 +5625,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -5243,7 +5660,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -5261,7 +5678,8 @@
         <v>1754</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>594</v>
+        <f aca="false">F14-H14</f>
+        <v>1160</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>594</v>
@@ -5278,7 +5696,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -5296,8 +5714,8 @@
         <v>1159</v>
       </c>
       <c r="G15" s="10" t="n">
-        <f aca="false">I15-I14+H15</f>
-        <v>717</v>
+        <f aca="false">F15-H15</f>
+        <v>442</v>
       </c>
       <c r="H15" s="10" t="n">
         <v>717</v>
@@ -5314,7 +5732,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -5332,8 +5750,8 @@
         <v>1543</v>
       </c>
       <c r="G16" s="10" t="n">
-        <f aca="false">I16-I15+H16</f>
-        <v>891</v>
+        <f aca="false">F16-H16</f>
+        <v>652</v>
       </c>
       <c r="H16" s="10" t="n">
         <v>891</v>
@@ -5350,7 +5768,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -5368,8 +5786,8 @@
         <v>1681</v>
       </c>
       <c r="G17" s="10" t="n">
-        <f aca="false">I17-I16+H17</f>
-        <v>179</v>
+        <f aca="false">F17-H17</f>
+        <v>1502</v>
       </c>
       <c r="H17" s="10" t="n">
         <v>179</v>
@@ -5386,7 +5804,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -5404,8 +5822,8 @@
         <v>1904</v>
       </c>
       <c r="G18" s="10" t="n">
-        <f aca="false">I18-I17+H18</f>
-        <v>343</v>
+        <f aca="false">F18-H18</f>
+        <v>1561</v>
       </c>
       <c r="H18" s="10" t="n">
         <v>343</v>
@@ -5422,7 +5840,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -5440,8 +5858,8 @@
         <v>1753</v>
       </c>
       <c r="G19" s="10" t="n">
-        <f aca="false">I19-I18+H19</f>
-        <v>314</v>
+        <f aca="false">F19-H19</f>
+        <v>1439</v>
       </c>
       <c r="H19" s="10" t="n">
         <v>314</v>
@@ -5458,7 +5876,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -5476,8 +5894,8 @@
         <v>1928</v>
       </c>
       <c r="G20" s="10" t="n">
-        <f aca="false">I20-I19+H20</f>
-        <v>350</v>
+        <f aca="false">F20-H20</f>
+        <v>1578</v>
       </c>
       <c r="H20" s="10" t="n">
         <v>350</v>
@@ -5494,7 +5912,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -5512,8 +5930,8 @@
         <v>1761</v>
       </c>
       <c r="G21" s="10" t="n">
-        <f aca="false">I21-I20+H21</f>
-        <v>262</v>
+        <f aca="false">F21-H21</f>
+        <v>1499</v>
       </c>
       <c r="H21" s="10" t="n">
         <v>262</v>
@@ -5530,7 +5948,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -5548,8 +5966,8 @@
         <v>1979</v>
       </c>
       <c r="G22" s="10" t="n">
-        <f aca="false">I22-I21+H22</f>
-        <v>326</v>
+        <f aca="false">F22-H22</f>
+        <v>1653</v>
       </c>
       <c r="H22" s="10" t="n">
         <v>326</v>
@@ -5566,7 +5984,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -5584,8 +6002,8 @@
         <v>1742</v>
       </c>
       <c r="G23" s="10" t="n">
-        <f aca="false">I23-I22+H23</f>
-        <v>276</v>
+        <f aca="false">F23-H23</f>
+        <v>1466</v>
       </c>
       <c r="H23" s="10" t="n">
         <v>276</v>
@@ -5602,7 +6020,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -5620,8 +6038,8 @@
         <v>2078</v>
       </c>
       <c r="G24" s="10" t="n">
-        <f aca="false">I24-I23+H24</f>
-        <v>254</v>
+        <f aca="false">F24-H24</f>
+        <v>1824</v>
       </c>
       <c r="H24" s="10" t="n">
         <v>254</v>
@@ -5638,7 +6056,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -5656,8 +6074,8 @@
         <v>1969</v>
       </c>
       <c r="G25" s="10" t="n">
-        <f aca="false">I25-I24+H25</f>
-        <v>232</v>
+        <f aca="false">F25-H25</f>
+        <v>1737</v>
       </c>
       <c r="H25" s="10" t="n">
         <v>232</v>
@@ -5674,7 +6092,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -5692,8 +6110,8 @@
         <v>1897</v>
       </c>
       <c r="G26" s="10" t="n">
-        <f aca="false">I26-I25+H26</f>
-        <v>188</v>
+        <f aca="false">F26-H26</f>
+        <v>1709</v>
       </c>
       <c r="H26" s="10" t="n">
         <v>188</v>
@@ -5710,7 +6128,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -5728,8 +6146,8 @@
         <v>1908</v>
       </c>
       <c r="G27" s="10" t="n">
-        <f aca="false">I27-I26+H27</f>
-        <v>245</v>
+        <f aca="false">F27-H27</f>
+        <v>1663</v>
       </c>
       <c r="H27" s="10" t="n">
         <v>245</v>
@@ -5746,7 +6164,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -5764,8 +6182,8 @@
         <v>1668</v>
       </c>
       <c r="G28" s="10" t="n">
-        <f aca="false">I28-I27+H28</f>
-        <v>187</v>
+        <f aca="false">F28-H28</f>
+        <v>1481</v>
       </c>
       <c r="H28" s="10" t="n">
         <v>187</v>
@@ -5782,7 +6200,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
@@ -5800,9 +6218,9 @@
         <f aca="false">1040+791</f>
         <v>1831</v>
       </c>
-      <c r="G29" s="12" t="n">
-        <f aca="false">I29-I28+H29</f>
-        <v>192</v>
+      <c r="G29" s="10" t="n">
+        <f aca="false">F29-H29</f>
+        <v>1639</v>
       </c>
       <c r="H29" s="12" t="n">
         <v>192</v>
@@ -5819,7 +6237,7 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>39</v>
@@ -5836,9 +6254,9 @@
       <c r="F30" s="14" t="n">
         <v>1760</v>
       </c>
-      <c r="G30" s="12" t="n">
-        <f aca="false">I30-I29+H30</f>
-        <v>270</v>
+      <c r="G30" s="10" t="n">
+        <f aca="false">F30-H30</f>
+        <v>1490</v>
       </c>
       <c r="H30" s="14" t="n">
         <v>270</v>
@@ -5855,7 +6273,7 @@
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>40</v>
@@ -5872,9 +6290,9 @@
       <c r="F31" s="14" t="n">
         <v>1920</v>
       </c>
-      <c r="G31" s="12" t="n">
-        <f aca="false">I31-I30+H31</f>
-        <v>270</v>
+      <c r="G31" s="10" t="n">
+        <f aca="false">F31-H31</f>
+        <v>1650</v>
       </c>
       <c r="H31" s="14" t="n">
         <v>270</v>
@@ -5891,7 +6309,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -5908,9 +6326,9 @@
       <c r="F32" s="14" t="n">
         <v>1920</v>
       </c>
-      <c r="G32" s="12" t="n">
-        <f aca="false">I32-I31+H32</f>
-        <v>270</v>
+      <c r="G32" s="10" t="n">
+        <f aca="false">F32-H32</f>
+        <v>1650</v>
       </c>
       <c r="H32" s="14" t="n">
         <v>270</v>
@@ -5927,7 +6345,7 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -5944,9 +6362,9 @@
       <c r="F33" s="14" t="n">
         <v>1640</v>
       </c>
-      <c r="G33" s="12" t="n">
-        <f aca="false">I33-I32+H33</f>
-        <v>310</v>
+      <c r="G33" s="10" t="n">
+        <f aca="false">F33-H33</f>
+        <v>1330</v>
       </c>
       <c r="H33" s="14" t="n">
         <v>310</v>
@@ -5963,7 +6381,7 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>43</v>
@@ -5980,9 +6398,9 @@
       <c r="F34" s="14" t="n">
         <v>1800</v>
       </c>
-      <c r="G34" s="12" t="n">
-        <f aca="false">I34-I33+H34</f>
-        <v>310</v>
+      <c r="G34" s="10" t="n">
+        <f aca="false">F34-H34</f>
+        <v>1490</v>
       </c>
       <c r="H34" s="14" t="n">
         <v>310</v>
@@ -5998,19 +6416,184 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
+      <c r="A35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14" t="n">
+        <v>640</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>1640</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <f aca="false">F35-H35</f>
+        <v>1050</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>590</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K35" s="15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>3160</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <f aca="false">F36-H36</f>
+        <v>-450</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>850</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K36" s="15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>960</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>1520</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <f aca="false">F37-H37</f>
+        <v>610</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>910</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K37" s="15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>320</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>1480</v>
+      </c>
+      <c r="G38" s="10" t="n">
+        <f aca="false">F38-H38</f>
+        <v>1210</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>270</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K38" s="15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>360</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1880</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <f aca="false">F39-H39</f>
+        <v>1570</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>310</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K39" s="15" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -6998,7 +7581,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -7008,29 +7591,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -7068,7 +7653,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -7100,7 +7685,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -7132,7 +7717,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -7164,7 +7749,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -7196,7 +7781,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -7228,7 +7813,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -7260,7 +7845,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -7292,7 +7877,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -7324,7 +7909,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -7356,7 +7941,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -7388,7 +7973,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -7420,7 +8005,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -7452,7 +8037,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -7484,7 +8069,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -7517,7 +8102,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -7550,7 +8135,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -7583,7 +8168,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -7616,7 +8201,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -7649,7 +8234,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -7682,7 +8267,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -7715,7 +8300,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -7748,7 +8333,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -7781,7 +8366,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -7814,7 +8399,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -7847,7 +8432,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -7880,7 +8465,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -7913,7 +8498,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -7946,7 +8531,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
@@ -7979,7 +8564,7 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>39</v>
@@ -8012,7 +8597,7 @@
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>40</v>
@@ -8045,7 +8630,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -8078,7 +8663,7 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -8111,7 +8696,7 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>43</v>
@@ -8143,19 +8728,169 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
+      <c r="A35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" s="11" t="n">
+        <f aca="false">H35-H34+G35</f>
+        <v>2.98000000000002</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="n">
+        <v>409.87</v>
+      </c>
+      <c r="I35" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" s="11" t="n">
+        <f aca="false">H36-H35+G36</f>
+        <v>2.10000000000002</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="n">
+        <v>411.97</v>
+      </c>
+      <c r="I36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F37" s="11" t="n">
+        <f aca="false">H37-H36+G37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>411.97</v>
+      </c>
+      <c r="I37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15" t="n">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F38" s="11" t="n">
+        <f aca="false">H38-H37+G38</f>
+        <v>1.21999999999997</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="n">
+        <v>413.19</v>
+      </c>
+      <c r="I38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <f aca="false">H39-H38+G39</f>
+        <v>2.42000000000002</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="n">
+        <v>415.61</v>
+      </c>
+      <c r="I39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>25.09</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -9143,7 +9878,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -9153,29 +9888,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="20.71"/>
   </cols>
   <sheetData>
@@ -9213,7 +9948,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -9245,7 +9980,7 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>12</v>
@@ -9277,7 +10012,7 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
@@ -9309,7 +10044,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>14</v>
@@ -9341,7 +10076,7 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>15</v>
@@ -9373,7 +10108,7 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -9405,7 +10140,7 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
@@ -9437,7 +10172,7 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -9469,7 +10204,7 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>19</v>
@@ -9501,7 +10236,7 @@
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -9533,7 +10268,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>21</v>
@@ -9565,7 +10300,7 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>22</v>
@@ -9597,7 +10332,7 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
@@ -9629,7 +10364,7 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>24</v>
@@ -9662,7 +10397,7 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>25</v>
@@ -9695,7 +10430,7 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>26</v>
@@ -9728,7 +10463,7 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
@@ -9761,7 +10496,7 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>28</v>
@@ -9794,7 +10529,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>29</v>
@@ -9827,7 +10562,7 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>30</v>
@@ -9860,7 +10595,7 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>31</v>
@@ -9893,7 +10628,7 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>32</v>
@@ -9926,7 +10661,7 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>33</v>
@@ -9959,7 +10694,7 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>34</v>
@@ -9992,7 +10727,7 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>35</v>
@@ -10025,7 +10760,7 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>36</v>
@@ -10058,7 +10793,7 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>37</v>
@@ -10091,7 +10826,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>38</v>
@@ -10124,7 +10859,7 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>39</v>
@@ -10157,7 +10892,7 @@
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>40</v>
@@ -10190,7 +10925,7 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -10223,7 +10958,7 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>42</v>
@@ -10256,7 +10991,7 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>43</v>
@@ -10288,19 +11023,169 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
+      <c r="A35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14" t="n">
+        <v>141</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <f aca="false">H35-H34+G35</f>
+        <v>111.5</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>91</v>
+      </c>
+      <c r="H35" s="15" t="n">
+        <v>660.46</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <f aca="false">H36-H35+G36</f>
+        <v>428.5</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H36" s="15" t="n">
+        <v>1038.96</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <f aca="false">H37-H36+G37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H37" s="15" t="n">
+        <v>988.96</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" s="15" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>132</v>
+      </c>
+      <c r="D38" s="15" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <f aca="false">H38-H37+G38</f>
+        <v>62.5</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="H38" s="15" t="n">
+        <v>969.46</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" s="15" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="F39" s="13" t="n">
+        <f aca="false">H39-H38+G39</f>
+        <v>-21.5</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="n">
+        <v>947.96</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -11288,7 +12173,7 @@
     <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
